--- a/Data.xlsx
+++ b/Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,46 +470,184 @@
       <c r="M1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.03322434425354</v>
+        <v>4.140012741088867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1658596992492676</v>
+        <v>0.6393477916717529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1451740264892578</v>
+        <v>0.8881509304046631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1625580787658691</v>
+        <v>0.8414368629455566</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1666364669799805</v>
+        <v>0.6953580379486084</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1465835571289062</v>
+        <v>0.7660329341888428</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1385495662689209</v>
+        <v>0.6664953231811523</v>
       </c>
       <c r="I2" t="n">
-        <v>0.11297607421875</v>
+        <v>0.6407063007354736</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1055288314819336</v>
+        <v>0.7043843269348145</v>
       </c>
       <c r="K2" t="n">
-        <v>20.12921595573425</v>
+        <v>0.780367374420166</v>
       </c>
       <c r="L2" t="n">
-        <v>0.245405912399292</v>
+        <v>0.7479269504547119</v>
       </c>
       <c r="M2" t="n">
-        <v>0.143444299697876</v>
+        <v>0.8337833881378174</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7341229915618896</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6713738441467285</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.5616250038146973</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8441598415374756</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8431022167205811</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9677767753601074</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9894256591796875</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9529192447662354</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.018010139465332</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8886289596557617</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.7531342506408691</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.7227306365966797</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.721895694732666</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.8298263549804688</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.7287106513977051</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.8321385383605957</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.76214599609375</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.731337308883667</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.7033369541168213</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.9292721748352051</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.7473673820495605</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.8072245121002197</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.8109076023101807</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,115 +539,169 @@
       <c r="AJ1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.140012741088867</v>
+        <v>0.364128589630127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6393477916717529</v>
+        <v>0.2977230548858643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8881509304046631</v>
+        <v>0.3497669696807861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8414368629455566</v>
+        <v>0.3209075927734375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6953580379486084</v>
+        <v>0.3509945869445801</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7660329341888428</v>
+        <v>0.3256604671478271</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6664953231811523</v>
+        <v>0.3278708457946777</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6407063007354736</v>
+        <v>0.3237197399139404</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7043843269348145</v>
+        <v>0.3525130748748779</v>
       </c>
       <c r="K2" t="n">
-        <v>0.780367374420166</v>
+        <v>0.2856206893920898</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7479269504547119</v>
+        <v>0.342484712600708</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8337833881378174</v>
+        <v>0.3179218769073486</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7341229915618896</v>
+        <v>0.3569948673248291</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6713738441467285</v>
+        <v>0.3359296321868896</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5616250038146973</v>
+        <v>0.3496215343475342</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8441598415374756</v>
+        <v>0.3180451393127441</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8431022167205811</v>
+        <v>0.3180375099182129</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9677767753601074</v>
+        <v>0.3477561473846436</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9894256591796875</v>
+        <v>0.3475015163421631</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9529192447662354</v>
+        <v>0.3157284259796143</v>
       </c>
       <c r="V2" t="n">
-        <v>1.018010139465332</v>
+        <v>0.3567671775817871</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8886289596557617</v>
+        <v>0.3470513820648193</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7531342506408691</v>
+        <v>0.3124456405639648</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7227306365966797</v>
+        <v>0.3607146739959717</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.721895694732666</v>
+        <v>0.3159899711608887</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8298263549804688</v>
+        <v>0.3486230373382568</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7287106513977051</v>
+        <v>0.3203482627868652</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8321385383605957</v>
+        <v>0.3612363338470459</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.76214599609375</v>
+        <v>0.2935218811035156</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.731337308883667</v>
+        <v>0.3420445919036865</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7033369541168213</v>
+        <v>0.4188261032104492</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.9292721748352051</v>
+        <v>0.3800711631774902</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7473673820495605</v>
+        <v>0.3094286918640137</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8072245121002197</v>
+        <v>0.3547441959381104</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.8109076023101807</v>
+        <v>0.3266589641571045</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.384688138961792</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.3373928070068359</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.3402605056762695</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.3484106063842773</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.3565571308135986</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.360626220703125</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.3402676582336426</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.378617525100708</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.324331521987915</v>
       </c>
     </row>
   </sheetData>
